--- a/downloads/trlist.xlsx
+++ b/downloads/trlist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cakmur\Desktop\Before Design - Material Overviev\Materyal Analiz Raporu-Burak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cakmur\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="1052">
   <si>
     <t>NO</t>
   </si>
@@ -3181,6 +3181,15 @@
   </si>
   <si>
     <t>Erken yaşta evliliklerin sonuçlarına ilişkin temel bilgi ve mesajları içermektedir. https://www.youtube.com/watch?time_continue=16&amp;v=0k0Pctx3emM</t>
+  </si>
+  <si>
+    <t>RPR_42</t>
+  </si>
+  <si>
+    <t>2018 Senelik Rapor: BM Nüfus Fonu-BM Çocuklara Yardım Fonu Çocuk Evliliklerini Sonlandıracak Eylemleri Hızlandırmak İçin Küresel Program</t>
+  </si>
+  <si>
+    <t>Materyal, UNICEF ve UNFPA tarafından çocuk yaşta evliliklerin önlenmesine yönelik olarak başlatılan Küresel Programın 2018 raporudur</t>
   </si>
 </sst>
 </file>
@@ -3551,10 +3560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4787,42 +4796,42 @@
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C43" s="2">
-        <v>2013</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>215</v>
+        <v>1049</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="8">
+        <v>2018</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C44" s="2">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>164</v>
@@ -4831,85 +4840,85 @@
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C45" s="2">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C46" s="2">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C47" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>164</v>
@@ -4921,18 +4930,18 @@
         <v>137</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>214</v>
@@ -4947,27 +4956,27 @@
         <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>239</v>
+        <v>137</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C49" s="2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>164</v>
@@ -4976,27 +4985,27 @@
         <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C50" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>164</v>
@@ -5005,27 +5014,27 @@
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C51" s="2">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>164</v>
@@ -5034,27 +5043,27 @@
         <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C52" s="2">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>164</v>
@@ -5063,21 +5072,21 @@
         <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>214</v>
@@ -5092,27 +5101,27 @@
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C54" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>164</v>
@@ -5121,27 +5130,27 @@
         <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C55" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>164</v>
@@ -5150,27 +5159,27 @@
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C56" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>164</v>
@@ -5179,27 +5188,27 @@
         <v>12</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C57" s="2">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>164</v>
@@ -5211,23 +5220,25 @@
         <v>137</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="2">
+        <v>2018</v>
+      </c>
       <c r="D58" s="2" t="s">
         <v>164</v>
       </c>
@@ -5238,25 +5249,23 @@
         <v>137</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C59" s="2">
-        <v>2018</v>
-      </c>
+      <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
         <v>164</v>
       </c>
@@ -5267,18 +5276,18 @@
         <v>137</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>214</v>
@@ -5296,24 +5305,24 @@
         <v>137</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C61" s="2">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>164</v>
@@ -5322,26 +5331,28 @@
         <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="2">
+        <v>2008</v>
+      </c>
       <c r="D62" s="2" t="s">
         <v>164</v>
       </c>
@@ -5349,28 +5360,26 @@
         <v>12</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>299</v>
+        <v>59</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C63" s="2">
-        <v>2011</v>
-      </c>
+      <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
         <v>164</v>
       </c>
@@ -5381,24 +5390,24 @@
         <v>299</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C64" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>164</v>
@@ -5410,24 +5419,24 @@
         <v>299</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C65" s="2">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>164</v>
@@ -5439,82 +5448,82 @@
         <v>299</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C66" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>316</v>
+        <v>164</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C67" s="2">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>164</v>
+        <v>316</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C68" s="2">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>164</v>
@@ -5523,27 +5532,27 @@
         <v>12</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C69" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>164</v>
@@ -5552,79 +5561,79 @@
         <v>12</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C70" s="2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>164</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C71" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>164</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>214</v>
@@ -5639,27 +5648,27 @@
         <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C73" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>164</v>
@@ -5668,27 +5677,27 @@
         <v>12</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C74" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>164</v>
@@ -5697,27 +5706,27 @@
         <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C75" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>164</v>
@@ -5726,21 +5735,21 @@
         <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>214</v>
@@ -5752,24 +5761,24 @@
         <v>164</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>214</v>
@@ -5781,30 +5790,30 @@
         <v>164</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C78" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>164</v>
@@ -5813,27 +5822,27 @@
         <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C79" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>164</v>
@@ -5842,26 +5851,28 @@
         <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C80" s="2"/>
+      <c r="C80" s="2">
+        <v>2018</v>
+      </c>
       <c r="D80" s="2" t="s">
         <v>164</v>
       </c>
@@ -5869,28 +5880,26 @@
         <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C81" s="2">
-        <v>2009</v>
-      </c>
+      <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
         <v>164</v>
       </c>
@@ -5898,27 +5907,27 @@
         <v>12</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C82" s="2">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>164</v>
@@ -5927,27 +5936,27 @@
         <v>12</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C83" s="2">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>164</v>
@@ -5956,27 +5965,27 @@
         <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C84" s="2">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>164</v>
@@ -5985,27 +5994,27 @@
         <v>12</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C85" s="2">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>164</v>
@@ -6014,27 +6023,27 @@
         <v>12</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C86" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>164</v>
@@ -6043,27 +6052,27 @@
         <v>12</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C87" s="2">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>164</v>
@@ -6072,27 +6081,27 @@
         <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C88" s="2">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>164</v>
@@ -6101,27 +6110,27 @@
         <v>12</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C89" s="2">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>164</v>
@@ -6130,27 +6139,27 @@
         <v>12</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C90" s="2">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>164</v>
@@ -6159,166 +6168,166 @@
         <v>12</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C91" s="2">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>164</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C92" s="2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>164</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>452</v>
+        <v>214</v>
       </c>
       <c r="C93" s="2">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>36</v>
+        <v>448</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>452</v>
       </c>
       <c r="C94" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>457</v>
+        <v>34</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>459</v>
+        <v>36</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>452</v>
       </c>
       <c r="C95" s="2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>34</v>
+        <v>457</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>452</v>
@@ -6327,85 +6336,85 @@
         <v>2015</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>468</v>
+        <v>34</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>452</v>
       </c>
       <c r="C97" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>452</v>
       </c>
       <c r="C98" s="2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>34</v>
+        <v>474</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>36</v>
+        <v>476</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>452</v>
@@ -6414,89 +6423,89 @@
         <v>2015</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C100" s="2"/>
+      <c r="C100" s="2">
+        <v>2015</v>
+      </c>
       <c r="D100" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>489</v>
+        <v>171</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C101" s="2">
-        <v>2003</v>
-      </c>
+      <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
-        <v>493</v>
+        <v>58</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>499</v>
+        <v>452</v>
       </c>
       <c r="C102" s="2">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>493</v>
@@ -6505,56 +6514,56 @@
         <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C103" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>11</v>
+        <v>493</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>137</v>
+        <v>500</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C104" s="2">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>11</v>
@@ -6563,85 +6572,85 @@
         <v>12</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>510</v>
+        <v>137</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>509</v>
       </c>
       <c r="C105" s="2">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>127</v>
+        <v>511</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="C106" s="2">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>519</v>
+        <v>58</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>521</v>
+        <v>127</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>452</v>
       </c>
       <c r="C107" s="2">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>519</v>
@@ -6650,56 +6659,56 @@
         <v>156</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>530</v>
+        <v>452</v>
       </c>
       <c r="C108" s="2">
         <v>2018</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>146</v>
+        <v>519</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>299</v>
+        <v>525</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>452</v>
+        <v>530</v>
       </c>
       <c r="C109" s="2">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>146</v>
@@ -6711,47 +6720,47 @@
         <v>299</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>452</v>
       </c>
       <c r="C110" s="2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>539</v>
+        <v>299</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>452</v>
@@ -6766,21 +6775,21 @@
         <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>452</v>
@@ -6789,62 +6798,62 @@
         <v>2018</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>549</v>
+        <v>146</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>553</v>
+        <v>545</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>10</v>
+        <v>452</v>
       </c>
       <c r="C113" s="2">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>11</v>
+        <v>549</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>142</v>
+        <v>550</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C114" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>11</v>
@@ -6853,21 +6862,21 @@
         <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>559</v>
+        <v>142</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>30</v>
+        <v>555</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>10</v>
@@ -6876,120 +6885,120 @@
         <v>2015</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>564</v>
+        <v>30</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="2">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>457</v>
+        <v>11</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>578</v>
+        <v>10</v>
       </c>
       <c r="C118" s="2">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>45</v>
+        <v>457</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>578</v>
       </c>
       <c r="C119" s="2">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>45</v>
@@ -6998,517 +7007,517 @@
         <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>69</v>
+        <v>579</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>47</v>
+        <v>580</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>578</v>
       </c>
       <c r="C120" s="2">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>587</v>
+        <v>12</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>588</v>
+        <v>47</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>578</v>
       </c>
       <c r="C121" s="2">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>12</v>
+        <v>587</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>592</v>
+        <v>114</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>47</v>
+        <v>588</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="C122" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>511</v>
+        <v>47</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>596</v>
       </c>
       <c r="C123" s="2">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>127</v>
+        <v>511</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="C124" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>605</v>
+        <v>58</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>607</v>
+        <v>127</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>578</v>
       </c>
       <c r="C125" s="2">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>146</v>
+        <v>605</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C126" s="2"/>
+      <c r="C126" s="2">
+        <v>2012</v>
+      </c>
       <c r="D126" s="2" t="s">
-        <v>616</v>
+        <v>146</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C127" s="2">
-        <v>2019</v>
-      </c>
+      <c r="C127" s="2"/>
       <c r="D127" s="2" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>578</v>
       </c>
       <c r="C128" s="2">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>45</v>
+        <v>622</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>578</v>
       </c>
       <c r="C129" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G129" s="8" t="s">
         <v>629</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>10</v>
+        <v>578</v>
       </c>
       <c r="C130" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="C131" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C131" s="2">
+        <v>2019</v>
+      </c>
       <c r="D131" s="2" t="s">
-        <v>643</v>
+        <v>11</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F131" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="G131" s="8" t="s">
+      <c r="G132" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="H132" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="I132" s="2" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="s">
+    <row r="133" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
         <v>648</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="C132" s="2">
-        <v>2010</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
-        <v>653</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>649</v>
       </c>
       <c r="C133" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>59</v>
+        <v>650</v>
       </c>
       <c r="G133" s="8" t="s">
         <v>79</v>
       </c>
       <c r="H133" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C134" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H134" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="I133" s="2" t="s">
+      <c r="I134" s="2" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+    <row r="135" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C135" s="2">
         <v>2017</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" s="2" t="s">
+      <c r="E135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G134" s="8" t="s">
+      <c r="G135" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H134" s="2" t="s">
+      <c r="H135" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="I134" s="2" t="s">
+      <c r="I135" s="2" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+    <row r="136" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B136" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2" t="s">
+      <c r="C136" s="2"/>
+      <c r="D136" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135" s="2" t="s">
+      <c r="E136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="G135" s="8" t="s">
+      <c r="G136" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="H135" s="2" t="s">
+      <c r="H136" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="I135" s="2" t="s">
+      <c r="I136" s="2" t="s">
         <v>665</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="C136" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C137" s="2">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>12</v>
@@ -7517,103 +7526,105 @@
         <v>299</v>
       </c>
       <c r="G137" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C138" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G138" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H137" s="2" t="s">
+      <c r="H138" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="I137" s="2" t="s">
+      <c r="I138" s="2" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+    <row r="139" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B139" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="C138" s="2">
-        <v>2018</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="C139" s="2">
         <v>2018</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>681</v>
+        <v>34</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>682</v>
+        <v>83</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C140" s="2"/>
+      <c r="C140" s="2">
+        <v>2018</v>
+      </c>
       <c r="D140" s="2" t="s">
         <v>681</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>687</v>
+        <v>156</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>137</v>
+        <v>682</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>680</v>
@@ -7626,255 +7637,253 @@
         <v>687</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>692</v>
+        <v>137</v>
       </c>
       <c r="G141" s="8" t="s">
         <v>688</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>680</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>12</v>
+        <v>687</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>120</v>
+        <v>692</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>680</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>687</v>
+        <v>12</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>701</v>
+        <v>120</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="C144" s="2">
-        <v>2016</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="C144" s="2"/>
       <c r="D144" s="2" t="s">
-        <v>58</v>
+        <v>681</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>12</v>
+        <v>687</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C145" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>225</v>
+        <v>707</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C146" s="2">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="C147" s="2">
         <v>2017</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>722</v>
+        <v>20</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>711</v>
       </c>
       <c r="C148" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>489</v>
+        <v>45</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>489</v>
+        <v>722</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
       <c r="C149" s="2">
         <v>2015</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>11</v>
+        <v>489</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>732</v>
+        <v>489</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>730</v>
       </c>
       <c r="C150" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>11</v>
@@ -7883,137 +7892,137 @@
         <v>12</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G150" s="8" t="s">
         <v>732</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C151" s="2">
         <v>2014</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>741</v>
+        <v>11</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="C152" s="2">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>11</v>
+        <v>741</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>730</v>
       </c>
       <c r="C153" s="2">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>730</v>
       </c>
       <c r="C154" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>127</v>
+        <v>753</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>730</v>
@@ -8028,79 +8037,79 @@
         <v>12</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="G155" s="8" t="s">
         <v>127</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="C156" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>622</v>
+        <v>58</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>717</v>
+        <v>761</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>765</v>
+        <v>127</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C157" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>146</v>
+        <v>622</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>299</v>
+        <v>717</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>531</v>
+        <v>765</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>716</v>
@@ -8115,135 +8124,135 @@
         <v>12</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>772</v>
+        <v>299</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>773</v>
+        <v>531</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="C159" s="2">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>549</v>
+        <v>146</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>190</v>
+        <v>773</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>781</v>
+        <v>711</v>
       </c>
       <c r="C160" s="2">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>457</v>
+        <v>549</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>783</v>
+        <v>190</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="C161" s="2">
         <v>2013</v>
       </c>
-      <c r="D161" s="2"/>
+      <c r="D161" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="E161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>675</v>
+        <v>787</v>
       </c>
       <c r="C162" s="2">
-        <v>2016</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D162" s="2"/>
       <c r="E162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>114</v>
+        <v>788</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>190</v>
+        <v>789</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>675</v>
@@ -8258,50 +8267,50 @@
         <v>12</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>706</v>
+        <v>114</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>707</v>
+        <v>190</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>799</v>
+        <v>675</v>
       </c>
       <c r="C164" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>800</v>
+        <v>706</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>36</v>
+        <v>707</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>799</v>
@@ -8316,26 +8325,28 @@
         <v>12</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G165" s="8" t="s">
         <v>36</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="C166" s="2"/>
+        <v>799</v>
+      </c>
+      <c r="C166" s="2">
+        <v>2017</v>
+      </c>
       <c r="D166" s="2" t="s">
         <v>34</v>
       </c>
@@ -8343,224 +8354,222 @@
         <v>12</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G166" s="8" t="s">
         <v>36</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C167" s="2">
-        <v>2013</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="C167" s="2"/>
       <c r="D167" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>813</v>
+        <v>36</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>817</v>
+        <v>452</v>
       </c>
       <c r="C168" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>494</v>
+        <v>812</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>499</v>
+        <v>817</v>
       </c>
       <c r="C169" s="2">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>822</v>
+        <v>58</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>823</v>
+        <v>494</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>499</v>
       </c>
       <c r="C170" s="2">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>34</v>
+        <v>822</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>36</v>
+        <v>824</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>499</v>
       </c>
       <c r="C171" s="2">
-        <v>2004</v>
+        <v>2015</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>681</v>
+        <v>34</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>833</v>
+        <v>36</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>675</v>
+        <v>499</v>
       </c>
       <c r="C172" s="2">
-        <v>2018</v>
+        <v>2004</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>34</v>
+        <v>681</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>676</v>
+        <v>833</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>841</v>
+        <v>675</v>
       </c>
       <c r="C173" s="2">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>568</v>
+        <v>837</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>842</v>
+        <v>676</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>841</v>
@@ -8575,26 +8584,28 @@
         <v>12</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>846</v>
+        <v>568</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>41</v>
+        <v>842</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="C175" s="2"/>
+      <c r="C175" s="2">
+        <v>2012</v>
+      </c>
       <c r="D175" s="2" t="s">
         <v>146</v>
       </c>
@@ -8602,85 +8613,83 @@
         <v>12</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>550</v>
+        <v>846</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>850</v>
+        <v>41</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="C176" s="2">
-        <v>2017</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="C176" s="2"/>
       <c r="D176" s="2" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>855</v>
+        <v>550</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>36</v>
+        <v>850</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="C177" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>861</v>
+        <v>36</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>859</v>
       </c>
       <c r="C178" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>58</v>
@@ -8689,21 +8698,21 @@
         <v>12</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>859</v>
@@ -8712,255 +8721,257 @@
         <v>2014</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>870</v>
+        <v>58</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>876</v>
+        <v>859</v>
       </c>
       <c r="C180" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>661</v>
+        <v>870</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>299</v>
+        <v>871</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="C181" s="2"/>
+      <c r="C181" s="2">
+        <v>2015</v>
+      </c>
       <c r="D181" s="2" t="s">
-        <v>11</v>
+        <v>661</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="C182" s="2">
-        <v>2015</v>
-      </c>
+      <c r="C182" s="2"/>
       <c r="D182" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>885</v>
+        <v>137</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>886</v>
-      </c>
-      <c r="H182" s="9" t="s">
-        <v>887</v>
+        <v>881</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>882</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="C183" s="2"/>
+      <c r="C183" s="2">
+        <v>2015</v>
+      </c>
       <c r="D183" s="2" t="s">
-        <v>890</v>
+        <v>34</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>892</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>893</v>
+        <v>886</v>
+      </c>
+      <c r="H183" s="9" t="s">
+        <v>887</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="C184" s="2">
-        <v>2018</v>
-      </c>
+        <v>876</v>
+      </c>
+      <c r="C184" s="2"/>
       <c r="D184" s="2" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>898</v>
+        <v>12</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>896</v>
       </c>
       <c r="C185" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="G185" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C186" s="2">
         <v>2017</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D186" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F185" s="2" t="s">
+      <c r="E186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G185" s="8" t="s">
+      <c r="G186" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H185" s="2" t="s">
+      <c r="H186" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="I185" s="2" t="s">
+      <c r="I186" s="2" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="10" t="s">
+    <row r="187" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="10" t="s">
         <v>905</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B187" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="C186" s="11">
+      <c r="C187" s="11">
         <v>2017</v>
       </c>
-      <c r="D186" s="11" t="s">
+      <c r="D187" s="11" t="s">
         <v>906</v>
       </c>
-      <c r="E186" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F186" s="11" t="s">
+      <c r="E187" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F187" s="11" t="s">
         <v>907</v>
       </c>
-      <c r="G186" s="8" t="s">
+      <c r="G187" s="8" t="s">
         <v>908</v>
       </c>
-      <c r="H186" s="11" t="s">
+      <c r="H187" s="11" t="s">
         <v>909</v>
       </c>
-      <c r="I186" s="11" t="s">
+      <c r="I187" s="11" t="s">
         <v>910</v>
       </c>
-      <c r="J186" s="12"/>
-      <c r="K186" s="12"/>
-    </row>
-    <row r="187" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="G187" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H187" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="I187" s="2" t="s">
-        <v>914</v>
-      </c>
+      <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
     </row>
     <row r="188" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>896</v>
@@ -8973,21 +8984,21 @@
         <v>12</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>896</v>
@@ -9000,136 +9011,136 @@
         <v>12</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>19</v>
+        <v>916</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>569</v>
+        <v>176</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>19</v>
+        <v>916</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>896</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2" t="s">
-        <v>906</v>
+        <v>146</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>907</v>
+        <v>19</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>921</v>
+        <v>569</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>907</v>
+        <v>19</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>896</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2" t="s">
-        <v>146</v>
+        <v>906</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>924</v>
+        <v>907</v>
       </c>
       <c r="G191" s="8" t="s">
-        <v>176</v>
+        <v>921</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>924</v>
+        <v>907</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>927</v>
+        <v>896</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2" t="s">
-        <v>622</v>
+        <v>146</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="G192" s="8" t="s">
-        <v>929</v>
+        <v>176</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="C193" s="2">
-        <v>2017</v>
-      </c>
+      <c r="C193" s="2"/>
       <c r="D193" s="2" t="s">
-        <v>34</v>
+        <v>622</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>928</v>
       </c>
       <c r="G193" s="8" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="C194" s="2"/>
+      <c r="C194" s="2">
+        <v>2017</v>
+      </c>
       <c r="D194" s="2" t="s">
         <v>34</v>
       </c>
@@ -9137,28 +9148,26 @@
         <v>12</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="G194" s="8" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="C195" s="2">
-        <v>2018</v>
-      </c>
+      <c r="C195" s="2"/>
       <c r="D195" s="2" t="s">
         <v>34</v>
       </c>
@@ -9166,166 +9175,166 @@
         <v>12</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>520</v>
+        <v>937</v>
       </c>
       <c r="G195" s="8" t="s">
-        <v>521</v>
+        <v>938</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>945</v>
+        <v>927</v>
       </c>
       <c r="C196" s="2">
         <v>2018</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>946</v>
+        <v>520</v>
       </c>
       <c r="G196" s="8" t="s">
-        <v>947</v>
+        <v>521</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="C197" s="2">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>299</v>
+        <v>946</v>
       </c>
       <c r="G197" s="8" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>951</v>
       </c>
       <c r="C198" s="2">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>956</v>
+        <v>299</v>
       </c>
       <c r="G198" s="8" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>951</v>
       </c>
       <c r="C199" s="2">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>961</v>
+        <v>164</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>137</v>
+        <v>956</v>
       </c>
       <c r="G199" s="8" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>966</v>
+        <v>951</v>
       </c>
       <c r="C200" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>549</v>
+        <v>961</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>967</v>
+        <v>12</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>968</v>
+        <v>137</v>
       </c>
       <c r="G200" s="8" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>966</v>
@@ -9334,62 +9343,62 @@
         <v>2019</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>34</v>
+        <v>549</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>156</v>
+        <v>967</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>200</v>
+        <v>968</v>
       </c>
       <c r="G201" s="8" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="C202" s="2">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>978</v>
+        <v>200</v>
       </c>
       <c r="G202" s="8" t="s">
-        <v>36</v>
+        <v>973</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>977</v>
       </c>
       <c r="C203" s="2">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>34</v>
@@ -9398,21 +9407,21 @@
         <v>12</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>933</v>
+        <v>36</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>977</v>
@@ -9427,343 +9436,343 @@
         <v>12</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="G204" s="8" t="s">
         <v>933</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="C205" s="2">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>189</v>
+        <v>986</v>
       </c>
       <c r="G205" s="8" t="s">
-        <v>25</v>
+        <v>933</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C206" s="2">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>995</v>
+        <v>12</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>996</v>
+        <v>189</v>
       </c>
       <c r="G206" s="8" t="s">
-        <v>997</v>
+        <v>25</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="C207" s="2">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>12</v>
+        <v>995</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="G207" s="8" t="s">
-        <v>866</v>
+        <v>997</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C208" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="G208" s="8" t="s">
-        <v>1008</v>
+        <v>866</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>1006</v>
       </c>
       <c r="C209" s="2">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>549</v>
+        <v>164</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>967</v>
+        <v>12</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>968</v>
+        <v>1007</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>969</v>
+        <v>1008</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="C210" s="2"/>
+      <c r="C210" s="2">
+        <v>2019</v>
+      </c>
       <c r="D210" s="2" t="s">
-        <v>34</v>
+        <v>549</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>156</v>
+        <v>967</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>200</v>
+        <v>968</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>1015</v>
+        <v>969</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I210" s="3" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1012</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>1020</v>
+        <v>156</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>1021</v>
+        <v>200</v>
       </c>
       <c r="G211" s="8" t="s">
-        <v>36</v>
+        <v>1015</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="I211" s="2" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>12</v>
+        <v>1020</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>137</v>
+        <v>1021</v>
       </c>
       <c r="G212" s="8" t="s">
-        <v>1026</v>
+        <v>36</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>137</v>
+        <v>1022</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C213" s="2">
-        <v>2011</v>
-      </c>
+        <v>1025</v>
+      </c>
+      <c r="C213" s="2"/>
       <c r="D213" s="2" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="G213" s="8" t="s">
-        <v>79</v>
+        <v>1026</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>1030</v>
+        <v>137</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C214" s="2">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>661</v>
+        <v>11</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="G214" s="8" t="s">
-        <v>877</v>
+        <v>79</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>878</v>
+        <v>1030</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="C215" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>1036</v>
+        <v>661</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="G215" s="8" t="s">
-        <v>1037</v>
+        <v>877</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>1038</v>
+        <v>878</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>1029</v>
       </c>
       <c r="C216" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>12</v>
@@ -9771,11 +9780,11 @@
       <c r="F216" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G216" s="2" t="s">
-        <v>166</v>
+      <c r="G216" s="8" t="s">
+        <v>1037</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="I216" s="2" t="s">
         <v>1039</v>
@@ -9783,32 +9792,60 @@
     </row>
     <row r="217" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C217" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2" t="s">
+      <c r="C218" s="2"/>
+      <c r="D218" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="E218" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="F217" s="2" t="s">
+      <c r="F218" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G217" s="8" t="s">
+      <c r="G218" s="8" t="s">
         <v>1046</v>
       </c>
-      <c r="H217" s="2" t="s">
+      <c r="H218" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="I217" s="8" t="s">
+      <c r="I218" s="8" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="219" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="220" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="221" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10591,11 +10628,12 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H132" r:id="rId1" location="/Dergiler?id=erken-ve-zorla-evlilik"/>
-    <hyperlink ref="H133" r:id="rId2" location="/Dergiler?id=%c3%87ocuk-gelinler"/>
-    <hyperlink ref="I217" r:id="rId3"/>
+    <hyperlink ref="H133" r:id="rId1" location="/Dergiler?id=erken-ve-zorla-evlilik"/>
+    <hyperlink ref="H134" r:id="rId2" location="/Dergiler?id=%c3%87ocuk-gelinler"/>
+    <hyperlink ref="I218" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/downloads/trlist.xlsx
+++ b/downloads/trlist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cakmur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\cmdocs\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="5" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="ARS" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5804" uniqueCount="1931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5804" uniqueCount="1932">
   <si>
     <t>NO</t>
   </si>
@@ -8191,6 +8191,9 @@
   <si>
     <t>Toplumsal Cinsiyet Eşitliği Ulusal Eylem Planı eğitim, ekonomi, yoksulluk, yetki ve karar alma sürecine katılım, sağlık, medya, çevre ve kurumsal mekanizmalar konularını kapsamaktadır. Bu alanların her biri için mevcut durumu toplumsal cinsiyet eşitliği açısından tanımlayan, toplumsal cinsiyet eşitliğine ulaşılmasının önündeki engelleri analiz eden ayrıca amaçlar,
 hedefler ve somut uygulama stratejilerine yer veren kapsamlı politika dokümanları hazırlanmıştır.</t>
+  </si>
+  <si>
+    <t>Sabancı Vakfı</t>
   </si>
 </sst>
 </file>
@@ -8439,15 +8442,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8457,6 +8451,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8675,7 +8678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -8703,22 +8706,22 @@
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9383,22 +9386,22 @@
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16043,32 +16046,32 @@
       <c r="O203" s="7"/>
     </row>
     <row r="204" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="22" t="s">
+      <c r="A204" s="19" t="s">
         <v>1701</v>
       </c>
-      <c r="B204" s="21" t="s">
+      <c r="B204" s="18" t="s">
         <v>1702</v>
       </c>
-      <c r="C204" s="21" t="s">
+      <c r="C204" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D204" s="21">
+      <c r="D204" s="18">
         <v>2014</v>
       </c>
-      <c r="E204" s="21" t="s">
+      <c r="E204" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F204" s="21" t="s">
+      <c r="F204" s="18" t="s">
         <v>1703</v>
       </c>
-      <c r="G204" s="21" t="s">
+      <c r="G204" s="18" t="s">
         <v>1704</v>
       </c>
-      <c r="H204" s="21" t="s">
+      <c r="H204" s="18" t="s">
         <v>1705</v>
       </c>
-      <c r="I204" s="19"/>
-      <c r="J204" s="20"/>
+      <c r="I204" s="16"/>
+      <c r="J204" s="17"/>
       <c r="K204" s="7"/>
       <c r="L204" s="7"/>
       <c r="M204" s="7"/>
@@ -16076,32 +16079,32 @@
       <c r="O204" s="7"/>
     </row>
     <row r="205" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="22" t="s">
+      <c r="A205" s="19" t="s">
         <v>1706</v>
       </c>
-      <c r="B205" s="21" t="s">
+      <c r="B205" s="18" t="s">
         <v>1707</v>
       </c>
-      <c r="C205" s="21" t="s">
+      <c r="C205" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D205" s="21">
+      <c r="D205" s="18">
         <v>2018</v>
       </c>
-      <c r="E205" s="21" t="s">
+      <c r="E205" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F205" s="21" t="s">
+      <c r="F205" s="18" t="s">
         <v>1708</v>
       </c>
-      <c r="G205" s="21" t="s">
+      <c r="G205" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="H205" s="21" t="s">
+      <c r="H205" s="18" t="s">
         <v>1709</v>
       </c>
-      <c r="I205" s="19"/>
-      <c r="J205" s="20"/>
+      <c r="I205" s="16"/>
+      <c r="J205" s="17"/>
       <c r="K205" s="7"/>
       <c r="L205" s="7"/>
       <c r="M205" s="7"/>
@@ -16109,32 +16112,32 @@
       <c r="O205" s="7"/>
     </row>
     <row r="206" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="22" t="s">
+      <c r="A206" s="19" t="s">
         <v>1710</v>
       </c>
-      <c r="B206" s="21" t="s">
+      <c r="B206" s="18" t="s">
         <v>1711</v>
       </c>
-      <c r="C206" s="21" t="s">
+      <c r="C206" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D206" s="21">
+      <c r="D206" s="18">
         <v>2018</v>
       </c>
-      <c r="E206" s="21" t="s">
+      <c r="E206" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F206" s="21" t="s">
+      <c r="F206" s="18" t="s">
         <v>1712</v>
       </c>
-      <c r="G206" s="21" t="s">
+      <c r="G206" s="18" t="s">
         <v>1713</v>
       </c>
-      <c r="H206" s="21" t="s">
+      <c r="H206" s="18" t="s">
         <v>1714</v>
       </c>
-      <c r="I206" s="19"/>
-      <c r="J206" s="20"/>
+      <c r="I206" s="16"/>
+      <c r="J206" s="17"/>
       <c r="K206" s="7"/>
       <c r="L206" s="7"/>
       <c r="M206" s="7"/>
@@ -16142,32 +16145,32 @@
       <c r="O206" s="7"/>
     </row>
     <row r="207" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="22" t="s">
+      <c r="A207" s="19" t="s">
         <v>1715</v>
       </c>
-      <c r="B207" s="21" t="s">
+      <c r="B207" s="18" t="s">
         <v>1716</v>
       </c>
-      <c r="C207" s="21" t="s">
+      <c r="C207" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D207" s="21">
+      <c r="D207" s="18">
         <v>2018</v>
       </c>
-      <c r="E207" s="21" t="s">
+      <c r="E207" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F207" s="21" t="s">
+      <c r="F207" s="18" t="s">
         <v>1717</v>
       </c>
-      <c r="G207" s="21" t="s">
+      <c r="G207" s="18" t="s">
         <v>1718</v>
       </c>
-      <c r="H207" s="21" t="s">
+      <c r="H207" s="18" t="s">
         <v>1719</v>
       </c>
-      <c r="I207" s="19"/>
-      <c r="J207" s="20"/>
+      <c r="I207" s="16"/>
+      <c r="J207" s="17"/>
       <c r="K207" s="7"/>
       <c r="L207" s="7"/>
       <c r="M207" s="7"/>
@@ -16175,32 +16178,32 @@
       <c r="O207" s="7"/>
     </row>
     <row r="208" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="22" t="s">
+      <c r="A208" s="19" t="s">
         <v>1720</v>
       </c>
-      <c r="B208" s="21" t="s">
+      <c r="B208" s="18" t="s">
         <v>1721</v>
       </c>
-      <c r="C208" s="21" t="s">
+      <c r="C208" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D208" s="21">
+      <c r="D208" s="18">
         <v>2018</v>
       </c>
-      <c r="E208" s="21" t="s">
+      <c r="E208" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F208" s="21" t="s">
+      <c r="F208" s="18" t="s">
         <v>1722</v>
       </c>
-      <c r="G208" s="21" t="s">
+      <c r="G208" s="18" t="s">
         <v>1723</v>
       </c>
-      <c r="H208" s="21" t="s">
+      <c r="H208" s="18" t="s">
         <v>1724</v>
       </c>
-      <c r="I208" s="19"/>
-      <c r="J208" s="20"/>
+      <c r="I208" s="16"/>
+      <c r="J208" s="17"/>
       <c r="K208" s="7"/>
       <c r="L208" s="7"/>
       <c r="M208" s="7"/>
@@ -16208,32 +16211,32 @@
       <c r="O208" s="7"/>
     </row>
     <row r="209" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="22" t="s">
+      <c r="A209" s="19" t="s">
         <v>1725</v>
       </c>
-      <c r="B209" s="21" t="s">
+      <c r="B209" s="18" t="s">
         <v>1726</v>
       </c>
-      <c r="C209" s="21" t="s">
+      <c r="C209" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D209" s="21">
+      <c r="D209" s="18">
         <v>2018</v>
       </c>
-      <c r="E209" s="21" t="s">
+      <c r="E209" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F209" s="21" t="s">
+      <c r="F209" s="18" t="s">
         <v>1727</v>
       </c>
-      <c r="G209" s="21" t="s">
+      <c r="G209" s="18" t="s">
         <v>1728</v>
       </c>
-      <c r="H209" s="21" t="s">
+      <c r="H209" s="18" t="s">
         <v>1729</v>
       </c>
-      <c r="I209" s="19"/>
-      <c r="J209" s="20"/>
+      <c r="I209" s="16"/>
+      <c r="J209" s="17"/>
       <c r="K209" s="7"/>
       <c r="L209" s="7"/>
       <c r="M209" s="7"/>
@@ -16241,32 +16244,32 @@
       <c r="O209" s="7"/>
     </row>
     <row r="210" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="22" t="s">
+      <c r="A210" s="19" t="s">
         <v>1730</v>
       </c>
-      <c r="B210" s="21" t="s">
+      <c r="B210" s="18" t="s">
         <v>1731</v>
       </c>
-      <c r="C210" s="21" t="s">
+      <c r="C210" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D210" s="21">
+      <c r="D210" s="18">
         <v>2018</v>
       </c>
-      <c r="E210" s="21" t="s">
+      <c r="E210" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F210" s="21" t="s">
+      <c r="F210" s="18" t="s">
         <v>1732</v>
       </c>
-      <c r="G210" s="21" t="s">
+      <c r="G210" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="H210" s="21" t="s">
+      <c r="H210" s="18" t="s">
         <v>1733</v>
       </c>
-      <c r="I210" s="19"/>
-      <c r="J210" s="20"/>
+      <c r="I210" s="16"/>
+      <c r="J210" s="17"/>
       <c r="K210" s="7"/>
       <c r="L210" s="7"/>
       <c r="M210" s="7"/>
@@ -16274,28 +16277,28 @@
       <c r="O210" s="7"/>
     </row>
     <row r="211" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="22" t="s">
+      <c r="A211" s="19" t="s">
         <v>1734</v>
       </c>
-      <c r="B211" s="21" t="s">
+      <c r="B211" s="18" t="s">
         <v>1735</v>
       </c>
-      <c r="C211" s="21" t="s">
+      <c r="C211" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D211" s="21">
+      <c r="D211" s="18">
         <v>2011</v>
       </c>
-      <c r="E211" s="21" t="s">
+      <c r="E211" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="F211" s="21" t="s">
+      <c r="F211" s="18" t="s">
         <v>1736</v>
       </c>
-      <c r="G211" s="21" t="s">
+      <c r="G211" s="18" t="s">
         <v>1737</v>
       </c>
-      <c r="H211" s="21" t="s">
+      <c r="H211" s="18" t="s">
         <v>1738</v>
       </c>
       <c r="I211" s="7"/>
@@ -16307,28 +16310,28 @@
       <c r="O211" s="7"/>
     </row>
     <row r="212" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="22" t="s">
+      <c r="A212" s="19" t="s">
         <v>1739</v>
       </c>
-      <c r="B212" s="21" t="s">
+      <c r="B212" s="18" t="s">
         <v>1740</v>
       </c>
-      <c r="C212" s="21" t="s">
+      <c r="C212" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D212" s="21">
+      <c r="D212" s="18">
         <v>2015</v>
       </c>
-      <c r="E212" s="21" t="s">
+      <c r="E212" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F212" s="21" t="s">
+      <c r="F212" s="18" t="s">
         <v>1741</v>
       </c>
-      <c r="G212" s="21" t="s">
+      <c r="G212" s="18" t="s">
         <v>1742</v>
       </c>
-      <c r="H212" s="21" t="s">
+      <c r="H212" s="18" t="s">
         <v>1743</v>
       </c>
       <c r="I212" s="7"/>
@@ -16340,28 +16343,28 @@
       <c r="O212" s="7"/>
     </row>
     <row r="213" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="22" t="s">
+      <c r="A213" s="19" t="s">
         <v>1744</v>
       </c>
-      <c r="B213" s="21" t="s">
+      <c r="B213" s="18" t="s">
         <v>1745</v>
       </c>
-      <c r="C213" s="21" t="s">
+      <c r="C213" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D213" s="21">
+      <c r="D213" s="18">
         <v>2018</v>
       </c>
-      <c r="E213" s="21" t="s">
+      <c r="E213" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F213" s="21" t="s">
+      <c r="F213" s="18" t="s">
         <v>1746</v>
       </c>
-      <c r="G213" s="21" t="s">
+      <c r="G213" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="H213" s="21" t="s">
+      <c r="H213" s="18" t="s">
         <v>1747</v>
       </c>
       <c r="I213" s="7"/>
@@ -16373,28 +16376,28 @@
       <c r="O213" s="7"/>
     </row>
     <row r="214" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="22" t="s">
+      <c r="A214" s="19" t="s">
         <v>1748</v>
       </c>
-      <c r="B214" s="21" t="s">
+      <c r="B214" s="18" t="s">
         <v>1749</v>
       </c>
-      <c r="C214" s="21" t="s">
+      <c r="C214" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D214" s="21">
+      <c r="D214" s="18">
         <v>2015</v>
       </c>
-      <c r="E214" s="21" t="s">
+      <c r="E214" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F214" s="21" t="s">
+      <c r="F214" s="18" t="s">
         <v>1750</v>
       </c>
-      <c r="G214" s="21" t="s">
+      <c r="G214" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="H214" s="21" t="s">
+      <c r="H214" s="18" t="s">
         <v>1751</v>
       </c>
       <c r="I214" s="7"/>
@@ -16406,28 +16409,28 @@
       <c r="O214" s="7"/>
     </row>
     <row r="215" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="22" t="s">
+      <c r="A215" s="19" t="s">
         <v>1752</v>
       </c>
-      <c r="B215" s="21" t="s">
+      <c r="B215" s="18" t="s">
         <v>1753</v>
       </c>
-      <c r="C215" s="21" t="s">
+      <c r="C215" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D215" s="21">
+      <c r="D215" s="18">
         <v>2018</v>
       </c>
-      <c r="E215" s="21" t="s">
+      <c r="E215" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="F215" s="21" t="s">
+      <c r="F215" s="18" t="s">
         <v>1754</v>
       </c>
-      <c r="G215" s="21" t="s">
+      <c r="G215" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="H215" s="21" t="s">
+      <c r="H215" s="18" t="s">
         <v>1755</v>
       </c>
       <c r="I215" s="7"/>
@@ -16439,28 +16442,28 @@
       <c r="O215" s="7"/>
     </row>
     <row r="216" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="22" t="s">
+      <c r="A216" s="19" t="s">
         <v>1756</v>
       </c>
-      <c r="B216" s="21" t="s">
+      <c r="B216" s="18" t="s">
         <v>1757</v>
       </c>
-      <c r="C216" s="21" t="s">
+      <c r="C216" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D216" s="21">
+      <c r="D216" s="18">
         <v>2018</v>
       </c>
-      <c r="E216" s="21" t="s">
+      <c r="E216" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F216" s="21" t="s">
+      <c r="F216" s="18" t="s">
         <v>1758</v>
       </c>
-      <c r="G216" s="21" t="s">
+      <c r="G216" s="18" t="s">
         <v>1759</v>
       </c>
-      <c r="H216" s="21" t="s">
+      <c r="H216" s="18" t="s">
         <v>1760</v>
       </c>
       <c r="I216" s="7"/>
@@ -16472,158 +16475,158 @@
       <c r="O216" s="7"/>
     </row>
     <row r="217" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="22" t="s">
+      <c r="A217" s="19" t="s">
         <v>1761</v>
       </c>
-      <c r="B217" s="21" t="s">
+      <c r="B217" s="18" t="s">
         <v>1762</v>
       </c>
-      <c r="C217" s="21" t="s">
+      <c r="C217" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D217" s="21">
+      <c r="D217" s="18">
         <v>2010</v>
       </c>
-      <c r="E217" s="21" t="s">
+      <c r="E217" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F217" s="21" t="s">
+      <c r="F217" s="18" t="s">
         <v>1763</v>
       </c>
-      <c r="G217" s="21" t="s">
+      <c r="G217" s="18" t="s">
         <v>1645</v>
       </c>
-      <c r="H217" s="21" t="s">
+      <c r="H217" s="18" t="s">
         <v>1764</v>
       </c>
     </row>
     <row r="218" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="22" t="s">
+      <c r="A218" s="19" t="s">
         <v>1765</v>
       </c>
-      <c r="B218" s="21" t="s">
+      <c r="B218" s="18" t="s">
         <v>1766</v>
       </c>
-      <c r="C218" s="21" t="s">
+      <c r="C218" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D218" s="21">
+      <c r="D218" s="18">
         <v>2018</v>
       </c>
-      <c r="E218" s="21" t="s">
+      <c r="E218" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F218" s="21" t="s">
+      <c r="F218" s="18" t="s">
         <v>1717</v>
       </c>
-      <c r="G218" s="21" t="s">
+      <c r="G218" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="H218" s="21" t="s">
+      <c r="H218" s="18" t="s">
         <v>1767</v>
       </c>
     </row>
     <row r="219" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="22" t="s">
+      <c r="A219" s="19" t="s">
         <v>1768</v>
       </c>
-      <c r="B219" s="21" t="s">
+      <c r="B219" s="18" t="s">
         <v>1610</v>
       </c>
-      <c r="C219" s="21" t="s">
+      <c r="C219" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D219" s="21">
+      <c r="D219" s="18">
         <v>2013</v>
       </c>
-      <c r="E219" s="21" t="s">
+      <c r="E219" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F219" s="21" t="s">
+      <c r="F219" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G219" s="21" t="s">
+      <c r="G219" s="18" t="s">
         <v>1742</v>
       </c>
-      <c r="H219" s="21" t="s">
+      <c r="H219" s="18" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="220" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="22" t="s">
+      <c r="A220" s="19" t="s">
         <v>1770</v>
       </c>
-      <c r="B220" s="21" t="s">
+      <c r="B220" s="18" t="s">
         <v>1771</v>
       </c>
-      <c r="C220" s="21" t="s">
+      <c r="C220" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D220" s="21">
+      <c r="D220" s="18">
         <v>2018</v>
       </c>
-      <c r="E220" s="21" t="s">
+      <c r="E220" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F220" s="21" t="s">
+      <c r="F220" s="18" t="s">
         <v>1772</v>
       </c>
-      <c r="G220" s="21" t="s">
+      <c r="G220" s="18" t="s">
         <v>1773</v>
       </c>
-      <c r="H220" s="21" t="s">
+      <c r="H220" s="18" t="s">
         <v>1774</v>
       </c>
     </row>
     <row r="221" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="22" t="s">
+      <c r="A221" s="19" t="s">
         <v>1775</v>
       </c>
-      <c r="B221" s="21" t="s">
+      <c r="B221" s="18" t="s">
         <v>1776</v>
       </c>
-      <c r="C221" s="21" t="s">
+      <c r="C221" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D221" s="21">
+      <c r="D221" s="18">
         <v>2014</v>
       </c>
-      <c r="E221" s="21" t="s">
+      <c r="E221" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F221" s="21" t="s">
+      <c r="F221" s="18" t="s">
         <v>1777</v>
       </c>
-      <c r="G221" s="21" t="s">
+      <c r="G221" s="18" t="s">
         <v>1778</v>
       </c>
-      <c r="H221" s="21" t="s">
+      <c r="H221" s="18" t="s">
         <v>1779</v>
       </c>
     </row>
     <row r="222" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="22" t="s">
+      <c r="A222" s="19" t="s">
         <v>1780</v>
       </c>
-      <c r="B222" s="21" t="s">
+      <c r="B222" s="18" t="s">
         <v>1781</v>
       </c>
-      <c r="C222" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D222" s="21">
+      <c r="C222" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D222" s="18">
         <v>2007</v>
       </c>
-      <c r="E222" s="21" t="s">
+      <c r="E222" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="F222" s="21" t="s">
+      <c r="F222" s="18" t="s">
         <v>1404</v>
       </c>
-      <c r="G222" s="21" t="s">
+      <c r="G222" s="18" t="s">
         <v>1782</v>
       </c>
-      <c r="H222" s="21" t="s">
+      <c r="H222" s="18" t="s">
         <v>1783</v>
       </c>
     </row>
@@ -16667,22 +16670,22 @@
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -17382,22 +17385,22 @@
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -19279,28 +19282,28 @@
       <c r="O58" s="7"/>
     </row>
     <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="19" t="s">
         <v>1899</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="18" t="s">
         <v>1900</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="18" t="s">
         <v>1901</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="18">
         <v>2006</v>
       </c>
-      <c r="E59" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="21" t="s">
+      <c r="E59" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="18" t="s">
         <v>1902</v>
       </c>
-      <c r="G59" s="21" t="s">
+      <c r="G59" s="18" t="s">
         <v>1903</v>
       </c>
-      <c r="H59" s="21" t="s">
+      <c r="H59" s="18" t="s">
         <v>1904</v>
       </c>
       <c r="I59" s="7"/>
@@ -19312,28 +19315,28 @@
       <c r="O59" s="7"/>
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="19" t="s">
         <v>1905</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="18" t="s">
         <v>1906</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="18" t="s">
         <v>1901</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="18">
         <v>2006</v>
       </c>
-      <c r="E60" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="21" t="s">
+      <c r="E60" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="18" t="s">
         <v>1907</v>
       </c>
-      <c r="G60" s="21" t="s">
+      <c r="G60" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="H60" s="21" t="s">
+      <c r="H60" s="18" t="s">
         <v>1908</v>
       </c>
       <c r="I60" s="7"/>
@@ -19345,28 +19348,28 @@
       <c r="O60" s="7"/>
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="19" t="s">
         <v>1909</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="18" t="s">
         <v>1906</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="18" t="s">
         <v>1901</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="18">
         <v>2011</v>
       </c>
-      <c r="E61" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="21" t="s">
+      <c r="E61" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="18" t="s">
         <v>1907</v>
       </c>
-      <c r="G61" s="21" t="s">
+      <c r="G61" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="H61" s="21" t="s">
+      <c r="H61" s="18" t="s">
         <v>1908</v>
       </c>
       <c r="I61" s="7"/>
@@ -19378,28 +19381,28 @@
       <c r="O61" s="7"/>
     </row>
     <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="19" t="s">
         <v>1910</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="18" t="s">
         <v>1911</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="18" t="s">
         <v>1901</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="18">
         <v>2014</v>
       </c>
-      <c r="E62" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="21" t="s">
+      <c r="E62" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="18" t="s">
         <v>1912</v>
       </c>
-      <c r="G62" s="21" t="s">
+      <c r="G62" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="H62" s="21" t="s">
+      <c r="H62" s="18" t="s">
         <v>1913</v>
       </c>
       <c r="I62" s="7"/>
@@ -19411,28 +19414,28 @@
       <c r="O62" s="7"/>
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="19" t="s">
         <v>1914</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="18" t="s">
         <v>1915</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="18" t="s">
         <v>1901</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="18">
         <v>2011</v>
       </c>
-      <c r="E63" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="21" t="s">
+      <c r="E63" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="18" t="s">
         <v>1916</v>
       </c>
-      <c r="G63" s="21" t="s">
+      <c r="G63" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="H63" s="21" t="s">
+      <c r="H63" s="18" t="s">
         <v>1917</v>
       </c>
       <c r="I63" s="7"/>
@@ -19444,28 +19447,28 @@
       <c r="O63" s="7"/>
     </row>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="19" t="s">
         <v>1918</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="18" t="s">
         <v>1919</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="18" t="s">
         <v>1901</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="18">
         <v>2018</v>
       </c>
-      <c r="E64" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="21" t="s">
+      <c r="E64" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="18" t="s">
         <v>1920</v>
       </c>
-      <c r="G64" s="21" t="s">
+      <c r="G64" s="18" t="s">
         <v>1473</v>
       </c>
-      <c r="H64" s="21" t="s">
+      <c r="H64" s="18" t="s">
         <v>1921</v>
       </c>
       <c r="I64" s="7"/>
@@ -19516,22 +19519,22 @@
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -19734,22 +19737,22 @@
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -19825,22 +19828,22 @@
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -19948,22 +19951,22 @@
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -20010,7 +20013,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="G217" sqref="G217"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -20047,22 +20052,22 @@
       <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -27127,7 +27132,7 @@
         <v>288</v>
       </c>
       <c r="G217" s="13" t="s">
-        <v>156</v>
+        <v>1931</v>
       </c>
       <c r="H217" s="7" t="s">
         <v>1005</v>
@@ -32698,28 +32703,28 @@
       <c r="O386" s="7"/>
     </row>
     <row r="387" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="22" t="s">
+      <c r="A387" s="19" t="s">
         <v>1899</v>
       </c>
-      <c r="B387" s="21" t="s">
+      <c r="B387" s="18" t="s">
         <v>1900</v>
       </c>
-      <c r="C387" s="21" t="s">
+      <c r="C387" s="18" t="s">
         <v>1901</v>
       </c>
-      <c r="D387" s="21">
+      <c r="D387" s="18">
         <v>2006</v>
       </c>
-      <c r="E387" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F387" s="21" t="s">
+      <c r="E387" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F387" s="18" t="s">
         <v>1902</v>
       </c>
-      <c r="G387" s="21" t="s">
+      <c r="G387" s="18" t="s">
         <v>1903</v>
       </c>
-      <c r="H387" s="21" t="s">
+      <c r="H387" s="18" t="s">
         <v>1904</v>
       </c>
       <c r="I387" s="7"/>
@@ -32731,28 +32736,28 @@
       <c r="O387" s="7"/>
     </row>
     <row r="388" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="22" t="s">
+      <c r="A388" s="19" t="s">
         <v>1905</v>
       </c>
-      <c r="B388" s="21" t="s">
+      <c r="B388" s="18" t="s">
         <v>1906</v>
       </c>
-      <c r="C388" s="21" t="s">
+      <c r="C388" s="18" t="s">
         <v>1901</v>
       </c>
-      <c r="D388" s="21">
+      <c r="D388" s="18">
         <v>2006</v>
       </c>
-      <c r="E388" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F388" s="21" t="s">
+      <c r="E388" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F388" s="18" t="s">
         <v>1907</v>
       </c>
-      <c r="G388" s="21" t="s">
+      <c r="G388" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="H388" s="21" t="s">
+      <c r="H388" s="18" t="s">
         <v>1908</v>
       </c>
       <c r="I388" s="7"/>
@@ -32764,28 +32769,28 @@
       <c r="O388" s="7"/>
     </row>
     <row r="389" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="22" t="s">
+      <c r="A389" s="19" t="s">
         <v>1909</v>
       </c>
-      <c r="B389" s="21" t="s">
+      <c r="B389" s="18" t="s">
         <v>1906</v>
       </c>
-      <c r="C389" s="21" t="s">
+      <c r="C389" s="18" t="s">
         <v>1901</v>
       </c>
-      <c r="D389" s="21">
+      <c r="D389" s="18">
         <v>2011</v>
       </c>
-      <c r="E389" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F389" s="21" t="s">
+      <c r="E389" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F389" s="18" t="s">
         <v>1907</v>
       </c>
-      <c r="G389" s="21" t="s">
+      <c r="G389" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="H389" s="21" t="s">
+      <c r="H389" s="18" t="s">
         <v>1908</v>
       </c>
       <c r="I389" s="7"/>
@@ -32797,28 +32802,28 @@
       <c r="O389" s="7"/>
     </row>
     <row r="390" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="22" t="s">
+      <c r="A390" s="19" t="s">
         <v>1910</v>
       </c>
-      <c r="B390" s="21" t="s">
+      <c r="B390" s="18" t="s">
         <v>1911</v>
       </c>
-      <c r="C390" s="21" t="s">
+      <c r="C390" s="18" t="s">
         <v>1901</v>
       </c>
-      <c r="D390" s="21">
+      <c r="D390" s="18">
         <v>2014</v>
       </c>
-      <c r="E390" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F390" s="21" t="s">
+      <c r="E390" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F390" s="18" t="s">
         <v>1912</v>
       </c>
-      <c r="G390" s="21" t="s">
+      <c r="G390" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="H390" s="21" t="s">
+      <c r="H390" s="18" t="s">
         <v>1913</v>
       </c>
       <c r="I390" s="7"/>
@@ -32830,28 +32835,28 @@
       <c r="O390" s="7"/>
     </row>
     <row r="391" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="22" t="s">
+      <c r="A391" s="19" t="s">
         <v>1914</v>
       </c>
-      <c r="B391" s="21" t="s">
+      <c r="B391" s="18" t="s">
         <v>1915</v>
       </c>
-      <c r="C391" s="21" t="s">
+      <c r="C391" s="18" t="s">
         <v>1901</v>
       </c>
-      <c r="D391" s="21">
+      <c r="D391" s="18">
         <v>2011</v>
       </c>
-      <c r="E391" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F391" s="21" t="s">
+      <c r="E391" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F391" s="18" t="s">
         <v>1916</v>
       </c>
-      <c r="G391" s="21" t="s">
+      <c r="G391" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="H391" s="21" t="s">
+      <c r="H391" s="18" t="s">
         <v>1917</v>
       </c>
       <c r="I391" s="7"/>
@@ -32863,28 +32868,28 @@
       <c r="O391" s="7"/>
     </row>
     <row r="392" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="22" t="s">
+      <c r="A392" s="19" t="s">
         <v>1918</v>
       </c>
-      <c r="B392" s="21" t="s">
+      <c r="B392" s="18" t="s">
         <v>1919</v>
       </c>
-      <c r="C392" s="21" t="s">
+      <c r="C392" s="18" t="s">
         <v>1901</v>
       </c>
-      <c r="D392" s="21">
+      <c r="D392" s="18">
         <v>2018</v>
       </c>
-      <c r="E392" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F392" s="21" t="s">
+      <c r="E392" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F392" s="18" t="s">
         <v>1920</v>
       </c>
-      <c r="G392" s="21" t="s">
+      <c r="G392" s="18" t="s">
         <v>1473</v>
       </c>
-      <c r="H392" s="21" t="s">
+      <c r="H392" s="18" t="s">
         <v>1921</v>
       </c>
       <c r="I392" s="7"/>
@@ -32896,28 +32901,28 @@
       <c r="O392" s="7"/>
     </row>
     <row r="393" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="22" t="s">
+      <c r="A393" s="19" t="s">
         <v>1922</v>
       </c>
-      <c r="B393" s="21" t="s">
+      <c r="B393" s="18" t="s">
         <v>1923</v>
       </c>
-      <c r="C393" s="21" t="s">
+      <c r="C393" s="18" t="s">
         <v>833</v>
       </c>
-      <c r="D393" s="21">
+      <c r="D393" s="18">
         <v>2018</v>
       </c>
-      <c r="E393" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F393" s="21" t="s">
+      <c r="E393" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F393" s="18" t="s">
         <v>1924</v>
       </c>
-      <c r="G393" s="21" t="s">
+      <c r="G393" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="H393" s="21" t="s">
+      <c r="H393" s="18" t="s">
         <v>1925</v>
       </c>
       <c r="I393" s="7"/>
@@ -32929,28 +32934,28 @@
       <c r="O393" s="7"/>
     </row>
     <row r="394" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="22" t="s">
+      <c r="A394" s="19" t="s">
         <v>1926</v>
       </c>
-      <c r="B394" s="21" t="s">
+      <c r="B394" s="18" t="s">
         <v>1927</v>
       </c>
-      <c r="C394" s="21" t="s">
+      <c r="C394" s="18" t="s">
         <v>833</v>
       </c>
-      <c r="D394" s="21">
+      <c r="D394" s="18">
         <v>2008</v>
       </c>
-      <c r="E394" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F394" s="21" t="s">
+      <c r="E394" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F394" s="18" t="s">
         <v>1928</v>
       </c>
-      <c r="G394" s="21" t="s">
+      <c r="G394" s="18" t="s">
         <v>1929</v>
       </c>
-      <c r="H394" s="21" t="s">
+      <c r="H394" s="18" t="s">
         <v>1930</v>
       </c>
       <c r="I394" s="7"/>
@@ -32962,32 +32967,32 @@
       <c r="O394" s="7"/>
     </row>
     <row r="395" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="22" t="s">
+      <c r="A395" s="19" t="s">
         <v>1701</v>
       </c>
-      <c r="B395" s="21" t="s">
+      <c r="B395" s="18" t="s">
         <v>1702</v>
       </c>
-      <c r="C395" s="21" t="s">
+      <c r="C395" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D395" s="21">
+      <c r="D395" s="18">
         <v>2014</v>
       </c>
-      <c r="E395" s="21" t="s">
+      <c r="E395" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F395" s="21" t="s">
+      <c r="F395" s="18" t="s">
         <v>1703</v>
       </c>
-      <c r="G395" s="21" t="s">
+      <c r="G395" s="18" t="s">
         <v>1704</v>
       </c>
-      <c r="H395" s="21" t="s">
+      <c r="H395" s="18" t="s">
         <v>1705</v>
       </c>
-      <c r="I395" s="19"/>
-      <c r="J395" s="20"/>
+      <c r="I395" s="16"/>
+      <c r="J395" s="17"/>
       <c r="K395" s="7"/>
       <c r="L395" s="7"/>
       <c r="M395" s="7"/>
@@ -32995,32 +33000,32 @@
       <c r="O395" s="7"/>
     </row>
     <row r="396" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="22" t="s">
+      <c r="A396" s="19" t="s">
         <v>1706</v>
       </c>
-      <c r="B396" s="21" t="s">
+      <c r="B396" s="18" t="s">
         <v>1707</v>
       </c>
-      <c r="C396" s="21" t="s">
+      <c r="C396" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D396" s="21">
+      <c r="D396" s="18">
         <v>2018</v>
       </c>
-      <c r="E396" s="21" t="s">
+      <c r="E396" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F396" s="21" t="s">
+      <c r="F396" s="18" t="s">
         <v>1708</v>
       </c>
-      <c r="G396" s="21" t="s">
+      <c r="G396" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="H396" s="21" t="s">
+      <c r="H396" s="18" t="s">
         <v>1709</v>
       </c>
-      <c r="I396" s="19"/>
-      <c r="J396" s="20"/>
+      <c r="I396" s="16"/>
+      <c r="J396" s="17"/>
       <c r="K396" s="7"/>
       <c r="L396" s="7"/>
       <c r="M396" s="7"/>
@@ -33028,32 +33033,32 @@
       <c r="O396" s="7"/>
     </row>
     <row r="397" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="22" t="s">
+      <c r="A397" s="19" t="s">
         <v>1710</v>
       </c>
-      <c r="B397" s="21" t="s">
+      <c r="B397" s="18" t="s">
         <v>1711</v>
       </c>
-      <c r="C397" s="21" t="s">
+      <c r="C397" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D397" s="21">
+      <c r="D397" s="18">
         <v>2018</v>
       </c>
-      <c r="E397" s="21" t="s">
+      <c r="E397" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F397" s="21" t="s">
+      <c r="F397" s="18" t="s">
         <v>1712</v>
       </c>
-      <c r="G397" s="21" t="s">
+      <c r="G397" s="18" t="s">
         <v>1713</v>
       </c>
-      <c r="H397" s="21" t="s">
+      <c r="H397" s="18" t="s">
         <v>1714</v>
       </c>
-      <c r="I397" s="19"/>
-      <c r="J397" s="20"/>
+      <c r="I397" s="16"/>
+      <c r="J397" s="17"/>
       <c r="K397" s="7"/>
       <c r="L397" s="7"/>
       <c r="M397" s="7"/>
@@ -33061,32 +33066,32 @@
       <c r="O397" s="7"/>
     </row>
     <row r="398" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="22" t="s">
+      <c r="A398" s="19" t="s">
         <v>1715</v>
       </c>
-      <c r="B398" s="21" t="s">
+      <c r="B398" s="18" t="s">
         <v>1716</v>
       </c>
-      <c r="C398" s="21" t="s">
+      <c r="C398" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D398" s="21">
+      <c r="D398" s="18">
         <v>2018</v>
       </c>
-      <c r="E398" s="21" t="s">
+      <c r="E398" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F398" s="21" t="s">
+      <c r="F398" s="18" t="s">
         <v>1717</v>
       </c>
-      <c r="G398" s="21" t="s">
+      <c r="G398" s="18" t="s">
         <v>1718</v>
       </c>
-      <c r="H398" s="21" t="s">
+      <c r="H398" s="18" t="s">
         <v>1719</v>
       </c>
-      <c r="I398" s="19"/>
-      <c r="J398" s="20"/>
+      <c r="I398" s="16"/>
+      <c r="J398" s="17"/>
       <c r="K398" s="7"/>
       <c r="L398" s="7"/>
       <c r="M398" s="7"/>
@@ -33094,32 +33099,32 @@
       <c r="O398" s="7"/>
     </row>
     <row r="399" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="22" t="s">
+      <c r="A399" s="19" t="s">
         <v>1720</v>
       </c>
-      <c r="B399" s="21" t="s">
+      <c r="B399" s="18" t="s">
         <v>1721</v>
       </c>
-      <c r="C399" s="21" t="s">
+      <c r="C399" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D399" s="21">
+      <c r="D399" s="18">
         <v>2018</v>
       </c>
-      <c r="E399" s="21" t="s">
+      <c r="E399" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F399" s="21" t="s">
+      <c r="F399" s="18" t="s">
         <v>1722</v>
       </c>
-      <c r="G399" s="21" t="s">
+      <c r="G399" s="18" t="s">
         <v>1723</v>
       </c>
-      <c r="H399" s="21" t="s">
+      <c r="H399" s="18" t="s">
         <v>1724</v>
       </c>
-      <c r="I399" s="19"/>
-      <c r="J399" s="20"/>
+      <c r="I399" s="16"/>
+      <c r="J399" s="17"/>
       <c r="K399" s="7"/>
       <c r="L399" s="7"/>
       <c r="M399" s="7"/>
@@ -33127,32 +33132,32 @@
       <c r="O399" s="7"/>
     </row>
     <row r="400" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="22" t="s">
+      <c r="A400" s="19" t="s">
         <v>1725</v>
       </c>
-      <c r="B400" s="21" t="s">
+      <c r="B400" s="18" t="s">
         <v>1726</v>
       </c>
-      <c r="C400" s="21" t="s">
+      <c r="C400" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D400" s="21">
+      <c r="D400" s="18">
         <v>2018</v>
       </c>
-      <c r="E400" s="21" t="s">
+      <c r="E400" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F400" s="21" t="s">
+      <c r="F400" s="18" t="s">
         <v>1727</v>
       </c>
-      <c r="G400" s="21" t="s">
+      <c r="G400" s="18" t="s">
         <v>1728</v>
       </c>
-      <c r="H400" s="21" t="s">
+      <c r="H400" s="18" t="s">
         <v>1729</v>
       </c>
-      <c r="I400" s="19"/>
-      <c r="J400" s="20"/>
+      <c r="I400" s="16"/>
+      <c r="J400" s="17"/>
       <c r="K400" s="7"/>
       <c r="L400" s="7"/>
       <c r="M400" s="7"/>
@@ -33160,32 +33165,32 @@
       <c r="O400" s="7"/>
     </row>
     <row r="401" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="22" t="s">
+      <c r="A401" s="19" t="s">
         <v>1730</v>
       </c>
-      <c r="B401" s="21" t="s">
+      <c r="B401" s="18" t="s">
         <v>1731</v>
       </c>
-      <c r="C401" s="21" t="s">
+      <c r="C401" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D401" s="21">
+      <c r="D401" s="18">
         <v>2018</v>
       </c>
-      <c r="E401" s="21" t="s">
+      <c r="E401" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F401" s="21" t="s">
+      <c r="F401" s="18" t="s">
         <v>1732</v>
       </c>
-      <c r="G401" s="21" t="s">
+      <c r="G401" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="H401" s="21" t="s">
+      <c r="H401" s="18" t="s">
         <v>1733</v>
       </c>
-      <c r="I401" s="19"/>
-      <c r="J401" s="20"/>
+      <c r="I401" s="16"/>
+      <c r="J401" s="17"/>
       <c r="K401" s="7"/>
       <c r="L401" s="7"/>
       <c r="M401" s="7"/>
@@ -33193,28 +33198,28 @@
       <c r="O401" s="7"/>
     </row>
     <row r="402" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="22" t="s">
+      <c r="A402" s="19" t="s">
         <v>1734</v>
       </c>
-      <c r="B402" s="21" t="s">
+      <c r="B402" s="18" t="s">
         <v>1735</v>
       </c>
-      <c r="C402" s="21" t="s">
+      <c r="C402" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D402" s="21">
+      <c r="D402" s="18">
         <v>2011</v>
       </c>
-      <c r="E402" s="21" t="s">
+      <c r="E402" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="F402" s="21" t="s">
+      <c r="F402" s="18" t="s">
         <v>1736</v>
       </c>
-      <c r="G402" s="21" t="s">
+      <c r="G402" s="18" t="s">
         <v>1737</v>
       </c>
-      <c r="H402" s="21" t="s">
+      <c r="H402" s="18" t="s">
         <v>1738</v>
       </c>
       <c r="I402" s="7"/>
@@ -33226,28 +33231,28 @@
       <c r="O402" s="7"/>
     </row>
     <row r="403" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="22" t="s">
+      <c r="A403" s="19" t="s">
         <v>1739</v>
       </c>
-      <c r="B403" s="21" t="s">
+      <c r="B403" s="18" t="s">
         <v>1740</v>
       </c>
-      <c r="C403" s="21" t="s">
+      <c r="C403" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D403" s="21">
+      <c r="D403" s="18">
         <v>2015</v>
       </c>
-      <c r="E403" s="21" t="s">
+      <c r="E403" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F403" s="21" t="s">
+      <c r="F403" s="18" t="s">
         <v>1741</v>
       </c>
-      <c r="G403" s="21" t="s">
+      <c r="G403" s="18" t="s">
         <v>1742</v>
       </c>
-      <c r="H403" s="21" t="s">
+      <c r="H403" s="18" t="s">
         <v>1743</v>
       </c>
       <c r="I403" s="7"/>
@@ -33259,28 +33264,28 @@
       <c r="O403" s="7"/>
     </row>
     <row r="404" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="22" t="s">
+      <c r="A404" s="19" t="s">
         <v>1744</v>
       </c>
-      <c r="B404" s="21" t="s">
+      <c r="B404" s="18" t="s">
         <v>1745</v>
       </c>
-      <c r="C404" s="21" t="s">
+      <c r="C404" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D404" s="21">
+      <c r="D404" s="18">
         <v>2018</v>
       </c>
-      <c r="E404" s="21" t="s">
+      <c r="E404" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F404" s="21" t="s">
+      <c r="F404" s="18" t="s">
         <v>1746</v>
       </c>
-      <c r="G404" s="21" t="s">
+      <c r="G404" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="H404" s="21" t="s">
+      <c r="H404" s="18" t="s">
         <v>1747</v>
       </c>
       <c r="I404" s="7"/>
@@ -33292,28 +33297,28 @@
       <c r="O404" s="7"/>
     </row>
     <row r="405" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="22" t="s">
+      <c r="A405" s="19" t="s">
         <v>1748</v>
       </c>
-      <c r="B405" s="21" t="s">
+      <c r="B405" s="18" t="s">
         <v>1749</v>
       </c>
-      <c r="C405" s="21" t="s">
+      <c r="C405" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D405" s="21">
+      <c r="D405" s="18">
         <v>2015</v>
       </c>
-      <c r="E405" s="21" t="s">
+      <c r="E405" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F405" s="21" t="s">
+      <c r="F405" s="18" t="s">
         <v>1750</v>
       </c>
-      <c r="G405" s="21" t="s">
+      <c r="G405" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="H405" s="21" t="s">
+      <c r="H405" s="18" t="s">
         <v>1751</v>
       </c>
       <c r="I405" s="7"/>
@@ -33325,28 +33330,28 @@
       <c r="O405" s="7"/>
     </row>
     <row r="406" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="22" t="s">
+      <c r="A406" s="19" t="s">
         <v>1752</v>
       </c>
-      <c r="B406" s="21" t="s">
+      <c r="B406" s="18" t="s">
         <v>1753</v>
       </c>
-      <c r="C406" s="21" t="s">
+      <c r="C406" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D406" s="21">
+      <c r="D406" s="18">
         <v>2018</v>
       </c>
-      <c r="E406" s="21" t="s">
+      <c r="E406" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="F406" s="21" t="s">
+      <c r="F406" s="18" t="s">
         <v>1754</v>
       </c>
-      <c r="G406" s="21" t="s">
+      <c r="G406" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="H406" s="21" t="s">
+      <c r="H406" s="18" t="s">
         <v>1755</v>
       </c>
       <c r="I406" s="7"/>
@@ -33358,28 +33363,28 @@
       <c r="O406" s="7"/>
     </row>
     <row r="407" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="22" t="s">
+      <c r="A407" s="19" t="s">
         <v>1756</v>
       </c>
-      <c r="B407" s="21" t="s">
+      <c r="B407" s="18" t="s">
         <v>1757</v>
       </c>
-      <c r="C407" s="21" t="s">
+      <c r="C407" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D407" s="21">
+      <c r="D407" s="18">
         <v>2018</v>
       </c>
-      <c r="E407" s="21" t="s">
+      <c r="E407" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F407" s="21" t="s">
+      <c r="F407" s="18" t="s">
         <v>1758</v>
       </c>
-      <c r="G407" s="21" t="s">
+      <c r="G407" s="18" t="s">
         <v>1759</v>
       </c>
-      <c r="H407" s="21" t="s">
+      <c r="H407" s="18" t="s">
         <v>1760</v>
       </c>
       <c r="I407" s="7"/>
@@ -33391,158 +33396,158 @@
       <c r="O407" s="7"/>
     </row>
     <row r="408" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="22" t="s">
+      <c r="A408" s="19" t="s">
         <v>1761</v>
       </c>
-      <c r="B408" s="21" t="s">
+      <c r="B408" s="18" t="s">
         <v>1762</v>
       </c>
-      <c r="C408" s="21" t="s">
+      <c r="C408" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D408" s="21">
+      <c r="D408" s="18">
         <v>2010</v>
       </c>
-      <c r="E408" s="21" t="s">
+      <c r="E408" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F408" s="21" t="s">
+      <c r="F408" s="18" t="s">
         <v>1763</v>
       </c>
-      <c r="G408" s="21" t="s">
+      <c r="G408" s="18" t="s">
         <v>1645</v>
       </c>
-      <c r="H408" s="21" t="s">
+      <c r="H408" s="18" t="s">
         <v>1764</v>
       </c>
     </row>
     <row r="409" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="22" t="s">
+      <c r="A409" s="19" t="s">
         <v>1765</v>
       </c>
-      <c r="B409" s="21" t="s">
+      <c r="B409" s="18" t="s">
         <v>1766</v>
       </c>
-      <c r="C409" s="21" t="s">
+      <c r="C409" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D409" s="21">
+      <c r="D409" s="18">
         <v>2018</v>
       </c>
-      <c r="E409" s="21" t="s">
+      <c r="E409" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F409" s="21" t="s">
+      <c r="F409" s="18" t="s">
         <v>1717</v>
       </c>
-      <c r="G409" s="21" t="s">
+      <c r="G409" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="H409" s="21" t="s">
+      <c r="H409" s="18" t="s">
         <v>1767</v>
       </c>
     </row>
     <row r="410" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="22" t="s">
+      <c r="A410" s="19" t="s">
         <v>1768</v>
       </c>
-      <c r="B410" s="21" t="s">
+      <c r="B410" s="18" t="s">
         <v>1610</v>
       </c>
-      <c r="C410" s="21" t="s">
+      <c r="C410" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D410" s="21">
+      <c r="D410" s="18">
         <v>2013</v>
       </c>
-      <c r="E410" s="21" t="s">
+      <c r="E410" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F410" s="21" t="s">
+      <c r="F410" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G410" s="21" t="s">
+      <c r="G410" s="18" t="s">
         <v>1742</v>
       </c>
-      <c r="H410" s="21" t="s">
+      <c r="H410" s="18" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="411" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="22" t="s">
+      <c r="A411" s="19" t="s">
         <v>1770</v>
       </c>
-      <c r="B411" s="21" t="s">
+      <c r="B411" s="18" t="s">
         <v>1771</v>
       </c>
-      <c r="C411" s="21" t="s">
+      <c r="C411" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D411" s="21">
+      <c r="D411" s="18">
         <v>2018</v>
       </c>
-      <c r="E411" s="21" t="s">
+      <c r="E411" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F411" s="21" t="s">
+      <c r="F411" s="18" t="s">
         <v>1772</v>
       </c>
-      <c r="G411" s="21" t="s">
+      <c r="G411" s="18" t="s">
         <v>1773</v>
       </c>
-      <c r="H411" s="21" t="s">
+      <c r="H411" s="18" t="s">
         <v>1774</v>
       </c>
     </row>
     <row r="412" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="22" t="s">
+      <c r="A412" s="19" t="s">
         <v>1775</v>
       </c>
-      <c r="B412" s="21" t="s">
+      <c r="B412" s="18" t="s">
         <v>1776</v>
       </c>
-      <c r="C412" s="21" t="s">
+      <c r="C412" s="18" t="s">
         <v>1408</v>
       </c>
-      <c r="D412" s="21">
+      <c r="D412" s="18">
         <v>2014</v>
       </c>
-      <c r="E412" s="21" t="s">
+      <c r="E412" s="18" t="s">
         <v>1409</v>
       </c>
-      <c r="F412" s="21" t="s">
+      <c r="F412" s="18" t="s">
         <v>1777</v>
       </c>
-      <c r="G412" s="21" t="s">
+      <c r="G412" s="18" t="s">
         <v>1778</v>
       </c>
-      <c r="H412" s="21" t="s">
+      <c r="H412" s="18" t="s">
         <v>1779</v>
       </c>
     </row>
     <row r="413" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="22" t="s">
+      <c r="A413" s="19" t="s">
         <v>1780</v>
       </c>
-      <c r="B413" s="21" t="s">
+      <c r="B413" s="18" t="s">
         <v>1781</v>
       </c>
-      <c r="C413" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D413" s="21">
+      <c r="C413" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D413" s="18">
         <v>2007</v>
       </c>
-      <c r="E413" s="21" t="s">
+      <c r="E413" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="F413" s="21" t="s">
+      <c r="F413" s="18" t="s">
         <v>1404</v>
       </c>
-      <c r="G413" s="21" t="s">
+      <c r="G413" s="18" t="s">
         <v>1782</v>
       </c>
-      <c r="H413" s="21" t="s">
+      <c r="H413" s="18" t="s">
         <v>1783</v>
       </c>
     </row>
@@ -34197,22 +34202,22 @@
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -34636,22 +34641,22 @@
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -34763,22 +34768,22 @@
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -35247,22 +35252,22 @@
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -35397,28 +35402,28 @@
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>1922</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>1923</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="18" t="s">
         <v>833</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="18">
         <v>2018</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="21" t="s">
+      <c r="E6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>1924</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="18" t="s">
         <v>1925</v>
       </c>
       <c r="I6" s="7"/>
@@ -35430,28 +35435,28 @@
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>1926</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>1927</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="18" t="s">
         <v>833</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="18">
         <v>2008</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>1928</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="18" t="s">
         <v>1929</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="18" t="s">
         <v>1930</v>
       </c>
       <c r="I7" s="7"/>
@@ -35475,7 +35480,7 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:U7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35502,22 +35507,22 @@
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -35700,7 +35705,7 @@
         <v>288</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>156</v>
+        <v>1931</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>1005</v>
@@ -35753,22 +35758,22 @@
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -36163,22 +36168,22 @@
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -36715,22 +36720,22 @@
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/downloads/trlist.xlsx
+++ b/downloads/trlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="3" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ARS" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5874" uniqueCount="1954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5875" uniqueCount="1955">
   <si>
     <t>NO</t>
   </si>
@@ -8260,6 +8260,9 @@
   </si>
   <si>
     <t>Başkent Üniversitesi Kadın- Çocuk Sağlığı ve Aile Planlaması Araştırma ve Uygulama Merkezi (BÜKÇAM) ve UNFPA ortaklığıyla ve Sabancı Vakfı destekleriyle 2019 yılında gerçekleştirilen “Çocuk Yaşta Evliliklerin Önlenmesi Projesi: Nevşehir Modeli” çalışması kapsamında geliştirilen bu broşürler hem çocuk yaşta evliliklerin sağlık sonuçlarına hem de çocuk, ergen, genç ve yetişkin kayramlarına odaklanıyor.</t>
+  </si>
+  <si>
+    <t>BRS_14</t>
   </si>
 </sst>
 </file>
@@ -20096,7 +20099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+    <sheetView topLeftCell="A184" workbookViewId="0">
       <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
@@ -34410,10 +34413,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34873,6 +34876,11 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>1954</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
